--- a/All statistic.xlsx
+++ b/All statistic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csmbi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05. Github\CTDLVAGT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A80854-8D4F-4B8D-8AA6-F7A6B0D3944D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7180B3C-862A-413C-991D-0225224A4946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorted Data" sheetId="1" r:id="rId1"/>
@@ -397,12 +397,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -416,6 +410,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1650,7 +1650,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3188,7 +3187,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$A$3</c15:sqref>
@@ -3276,7 +3275,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-057B-45B8-B37B-8D44A4E61E1D}"/>
                   </c:ext>
@@ -4529,7 +4528,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-FA3F-476B-80DA-5CE2CABCF31F}"/>
                   </c:ext>
@@ -4542,7 +4541,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$A$4</c15:sqref>
@@ -4630,7 +4629,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-FA3F-476B-80DA-5CE2CABCF31F}"/>
                   </c:ext>
@@ -4643,7 +4642,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$A$6</c15:sqref>
@@ -4731,7 +4730,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FA3F-476B-80DA-5CE2CABCF31F}"/>
                   </c:ext>
@@ -4744,7 +4743,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$A$7</c15:sqref>
@@ -4832,7 +4831,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FA3F-476B-80DA-5CE2CABCF31F}"/>
                   </c:ext>
@@ -4845,7 +4844,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$A$9</c15:sqref>
@@ -4935,7 +4934,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-FA3F-476B-80DA-5CE2CABCF31F}"/>
                   </c:ext>
@@ -6302,7 +6301,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-E225-44A1-8FF7-6C44BF97C1BA}"/>
                   </c:ext>
@@ -6424,7 +6423,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E225-44A1-8FF7-6C44BF97C1BA}"/>
                   </c:ext>
@@ -6548,7 +6547,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E225-44A1-8FF7-6C44BF97C1BA}"/>
                   </c:ext>
@@ -6672,7 +6671,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-E225-44A1-8FF7-6C44BF97C1BA}"/>
                   </c:ext>
@@ -6796,7 +6795,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-E225-44A1-8FF7-6C44BF97C1BA}"/>
                   </c:ext>
@@ -7781,7 +7780,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$A$31,'Reserved Sorted Data'!$A$33:$A$43)</c15:sqref>
@@ -7819,7 +7818,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$E$31,'Reserved Sorted Data'!$E$33:$E$43)</c15:sqref>
@@ -7856,7 +7855,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-C353-4C60-ADBD-94693CD521D9}"/>
                   </c:ext>
@@ -7879,7 +7878,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$A$31,'Reserved Sorted Data'!$A$33:$A$43)</c15:sqref>
@@ -7917,7 +7916,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$G$31,'Reserved Sorted Data'!$G$33:$G$43)</c15:sqref>
@@ -7954,7 +7953,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C353-4C60-ADBD-94693CD521D9}"/>
                   </c:ext>
@@ -7979,7 +7978,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$A$31,'Reserved Sorted Data'!$A$33:$A$43)</c15:sqref>
@@ -8017,7 +8016,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$I$31,'Reserved Sorted Data'!$I$33:$I$43)</c15:sqref>
@@ -8054,7 +8053,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-C353-4C60-ADBD-94693CD521D9}"/>
                   </c:ext>
@@ -8079,7 +8078,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$A$31,'Reserved Sorted Data'!$A$33:$A$43)</c15:sqref>
@@ -8117,7 +8116,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$K$31,'Reserved Sorted Data'!$K$33:$K$43)</c15:sqref>
@@ -8154,7 +8153,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-C353-4C60-ADBD-94693CD521D9}"/>
                   </c:ext>
@@ -8179,7 +8178,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$A$31,'Reserved Sorted Data'!$A$33:$A$43)</c15:sqref>
@@ -8217,7 +8216,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Reserved Sorted Data'!$M$31,'Reserved Sorted Data'!$M$33:$M$43)</c15:sqref>
@@ -8254,7 +8253,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-C353-4C60-ADBD-94693CD521D9}"/>
                   </c:ext>
@@ -8712,19 +8711,19 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8813,19 +8812,19 @@
                   <c:v>0.438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4123</c:v>
+                  <c:v>4.1230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11664</c:v>
+                  <c:v>11.664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46937</c:v>
+                  <c:v>46.936999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>424796</c:v>
+                  <c:v>424.79599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1178886</c:v>
+                  <c:v>1178.886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8914,19 +8913,19 @@
                   <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>345</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>962</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3829</c:v>
+                  <c:v>3.8290000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36799</c:v>
+                  <c:v>36.798999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114450</c:v>
+                  <c:v>114.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9015,19 +9014,19 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9116,19 +9115,19 @@
                   <c:v>0.378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3384</c:v>
+                  <c:v>3.3839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9600</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38122</c:v>
+                  <c:v>38.122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>343856</c:v>
+                  <c:v>343.85599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>953798</c:v>
+                  <c:v>953.798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9219,19 +9218,19 @@
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149</c:v>
+                  <c:v>0.14899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246</c:v>
+                  <c:v>0.246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9322,19 +9321,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9425,19 +9424,19 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9534,13 +9533,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9634,16 +9633,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11189,7 +11188,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Randomized Data'!$A$3</c15:sqref>
@@ -11277,7 +11276,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-37C6-41F7-9C1A-38B0A46FBC21}"/>
                   </c:ext>
@@ -12525,7 +12524,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-BEFE-49EB-AF4C-8CE8740148D9}"/>
                   </c:ext>
@@ -12538,7 +12537,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Randomized Data'!$A$4</c15:sqref>
@@ -12626,7 +12625,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-BEFE-49EB-AF4C-8CE8740148D9}"/>
                   </c:ext>
@@ -12639,7 +12638,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Randomized Data'!$A$6</c15:sqref>
@@ -12727,7 +12726,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BEFE-49EB-AF4C-8CE8740148D9}"/>
                   </c:ext>
@@ -12740,7 +12739,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Randomized Data'!$A$7</c15:sqref>
@@ -12828,7 +12827,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BEFE-49EB-AF4C-8CE8740148D9}"/>
                   </c:ext>
@@ -12841,7 +12840,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Randomized Data'!$A$9</c15:sqref>
@@ -12931,7 +12930,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-BEFE-49EB-AF4C-8CE8740148D9}"/>
                   </c:ext>
@@ -14236,28 +14235,28 @@
                         <c:v>0.57899999999999996</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4</c:v>
+                        <c:v>4.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4123</c:v>
+                        <c:v>4.1230000000000002</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>345</c:v>
+                        <c:v>0.34499999999999997</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6</c:v>
+                        <c:v>6.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3384</c:v>
+                        <c:v>3.3839999999999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13</c:v>
+                        <c:v>1.2999999999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>3</c:v>
+                        <c:v>3.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>4</c:v>
+                        <c:v>4.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>0</c:v>
@@ -14268,7 +14267,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FEA9-4E3C-AFC0-03911A25C105}"/>
                   </c:ext>
@@ -14358,39 +14357,39 @@
                         <c:v>1.5940000000000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>7</c:v>
+                        <c:v>7.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11664</c:v>
+                        <c:v>11.664</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>962</c:v>
+                        <c:v>0.96199999999999997</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>8</c:v>
+                        <c:v>8.0000000000000002E-3</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9600</c:v>
+                        <c:v>9.6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>22</c:v>
+                        <c:v>2.1999999999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4</c:v>
+                        <c:v>4.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>9</c:v>
+                        <c:v>8.9999999999999993E-3</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>1</c:v>
+                        <c:v>1E-3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-FEA9-4E3C-AFC0-03911A25C105}"/>
                   </c:ext>
@@ -14482,39 +14481,39 @@
                         <c:v>6.3810000000000002</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16</c:v>
+                        <c:v>1.6E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>46937</c:v>
+                        <c:v>46.936999999999998</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3829</c:v>
+                        <c:v>3.8290000000000002</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>18</c:v>
+                        <c:v>1.7999999999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>38122</c:v>
+                        <c:v>38.122</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>47</c:v>
+                        <c:v>4.7E-2</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>9</c:v>
+                        <c:v>8.9999999999999993E-3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>17</c:v>
+                        <c:v>1.7000000000000001E-2</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>1</c:v>
+                        <c:v>1E-3</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2</c:v>
+                        <c:v>2E-3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-FEA9-4E3C-AFC0-03911A25C105}"/>
                   </c:ext>
@@ -14606,39 +14605,39 @@
                         <c:v>72.403999999999996</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>56</c:v>
+                        <c:v>5.6000000000000001E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>424796</c:v>
+                        <c:v>424.79599999999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>36799</c:v>
+                        <c:v>36.798999999999999</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>53</c:v>
+                        <c:v>5.2999999999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>343856</c:v>
+                        <c:v>343.85599999999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>149</c:v>
+                        <c:v>0.14899999999999999</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>31</c:v>
+                        <c:v>3.1E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>57</c:v>
+                        <c:v>5.7000000000000002E-2</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>3</c:v>
+                        <c:v>3.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>0.01</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-FEA9-4E3C-AFC0-03911A25C105}"/>
                   </c:ext>
@@ -14730,39 +14729,39 @@
                         <c:v>165.76400000000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>98</c:v>
+                        <c:v>9.8000000000000004E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1178886</c:v>
+                        <c:v>1178.886</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>114450</c:v>
+                        <c:v>114.45</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>89</c:v>
+                        <c:v>8.8999999999999996E-2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>953798</c:v>
+                        <c:v>953.798</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>246</c:v>
+                        <c:v>0.246</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>55</c:v>
+                        <c:v>5.5E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>103</c:v>
+                        <c:v>0.10299999999999999</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>6</c:v>
+                        <c:v>6.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>24</c:v>
+                        <c:v>2.4E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-FEA9-4E3C-AFC0-03911A25C105}"/>
                   </c:ext>
@@ -15769,19 +15768,19 @@
                       <c:formatCode>#,##0</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>4</c:v>
+                        <c:v>4.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6</c:v>
+                        <c:v>6.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>13</c:v>
+                        <c:v>1.2999999999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>3.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>4.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>0</c:v>
@@ -15792,7 +15791,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-08A5-4689-AF29-DD68394D5A19}"/>
                   </c:ext>
@@ -15867,30 +15866,30 @@
                       <c:formatCode>#,##0</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>7</c:v>
+                        <c:v>7.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>8</c:v>
+                        <c:v>8.0000000000000002E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>22</c:v>
+                        <c:v>2.1999999999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4</c:v>
+                        <c:v>4.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>9</c:v>
+                        <c:v>8.9999999999999993E-3</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1</c:v>
+                        <c:v>1E-3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-08A5-4689-AF29-DD68394D5A19}"/>
                   </c:ext>
@@ -15967,30 +15966,30 @@
                       <c:formatCode>#,##0</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>16</c:v>
+                        <c:v>1.6E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>18</c:v>
+                        <c:v>1.7999999999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>47</c:v>
+                        <c:v>4.7E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>9</c:v>
+                        <c:v>8.9999999999999993E-3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>17</c:v>
+                        <c:v>1.7000000000000001E-2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1</c:v>
+                        <c:v>1E-3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2</c:v>
+                        <c:v>2E-3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-08A5-4689-AF29-DD68394D5A19}"/>
                   </c:ext>
@@ -16067,30 +16066,30 @@
                       <c:formatCode>#,##0</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>56</c:v>
+                        <c:v>5.6000000000000001E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>53</c:v>
+                        <c:v>5.2999999999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>149</c:v>
+                        <c:v>0.14899999999999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>31</c:v>
+                        <c:v>3.1E-2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>57</c:v>
+                        <c:v>5.7000000000000002E-2</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3</c:v>
+                        <c:v>3.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>10</c:v>
+                        <c:v>0.01</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-08A5-4689-AF29-DD68394D5A19}"/>
                   </c:ext>
@@ -16167,30 +16166,30 @@
                       <c:formatCode>#,##0</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>98</c:v>
+                        <c:v>9.8000000000000004E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>89</c:v>
+                        <c:v>8.8999999999999996E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>246</c:v>
+                        <c:v>0.246</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>55</c:v>
+                        <c:v>5.5E-2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>103</c:v>
+                        <c:v>0.10299999999999999</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>6</c:v>
+                        <c:v>6.0000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>24</c:v>
+                        <c:v>2.4E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-08A5-4689-AF29-DD68394D5A19}"/>
                   </c:ext>
@@ -17412,7 +17411,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-80B6-429F-BD59-50EB184E619E}"/>
                   </c:ext>
@@ -17534,7 +17533,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-80B6-429F-BD59-50EB184E619E}"/>
                   </c:ext>
@@ -17658,7 +17657,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-80B6-429F-BD59-50EB184E619E}"/>
                   </c:ext>
@@ -17782,7 +17781,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-80B6-429F-BD59-50EB184E619E}"/>
                   </c:ext>
@@ -17906,7 +17905,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-80B6-429F-BD59-50EB184E619E}"/>
                   </c:ext>
@@ -18819,7 +18818,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$A$2,'Sorted Data'!$A$4:$A$14)</c15:sqref>
@@ -18854,7 +18853,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$E$2,'Sorted Data'!$E$4:$E$14)</c15:sqref>
@@ -18888,7 +18887,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-39C4-44D5-A7C7-F40CB203648A}"/>
                   </c:ext>
@@ -18911,7 +18910,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$A$2,'Sorted Data'!$A$4:$A$14)</c15:sqref>
@@ -18946,7 +18945,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$G$2,'Sorted Data'!$G$4:$G$14)</c15:sqref>
@@ -18980,7 +18979,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-39C4-44D5-A7C7-F40CB203648A}"/>
                   </c:ext>
@@ -19005,7 +19004,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$A$2,'Sorted Data'!$A$4:$A$14)</c15:sqref>
@@ -19040,7 +19039,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$I$2,'Sorted Data'!$I$4:$I$14)</c15:sqref>
@@ -19074,7 +19073,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-39C4-44D5-A7C7-F40CB203648A}"/>
                   </c:ext>
@@ -19099,7 +19098,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$A$2,'Sorted Data'!$A$4:$A$14)</c15:sqref>
@@ -19134,7 +19133,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$K$2,'Sorted Data'!$K$4:$K$14)</c15:sqref>
@@ -19168,7 +19167,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-39C4-44D5-A7C7-F40CB203648A}"/>
                   </c:ext>
@@ -19193,7 +19192,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$A$2,'Sorted Data'!$A$4:$A$14)</c15:sqref>
@@ -19228,7 +19227,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>('Sorted Data'!$M$2,'Sorted Data'!$M$4:$M$14)</c15:sqref>
@@ -19262,7 +19261,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-39C4-44D5-A7C7-F40CB203648A}"/>
                   </c:ext>
@@ -22191,7 +22190,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Nearly Sorted Data'!$A$3</c15:sqref>
@@ -22279,7 +22278,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-3EB8-45CD-97D8-61D94BCD0EBF}"/>
                   </c:ext>
@@ -23618,7 +23617,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Nearly Sorted Data'!$A$3</c15:sqref>
@@ -23706,7 +23705,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-BB4F-4C78-B061-0E0DC14C2A0F}"/>
                   </c:ext>
@@ -23719,7 +23718,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Nearly Sorted Data'!$A$4</c15:sqref>
@@ -23807,7 +23806,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BB4F-4C78-B061-0E0DC14C2A0F}"/>
                   </c:ext>
@@ -23820,7 +23819,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Nearly Sorted Data'!$A$6</c15:sqref>
@@ -23908,7 +23907,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-BB4F-4C78-B061-0E0DC14C2A0F}"/>
                   </c:ext>
@@ -25269,7 +25268,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-EC70-45F5-B737-08666DECF09B}"/>
                   </c:ext>
@@ -25391,7 +25390,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-EC70-45F5-B737-08666DECF09B}"/>
                   </c:ext>
@@ -25515,7 +25514,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-EC70-45F5-B737-08666DECF09B}"/>
                   </c:ext>
@@ -25639,7 +25638,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-EC70-45F5-B737-08666DECF09B}"/>
                   </c:ext>
@@ -25763,7 +25762,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-EC70-45F5-B737-08666DECF09B}"/>
                   </c:ext>
@@ -26914,7 +26913,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D7DE-4C3C-95A8-9ED046DAF8BE}"/>
                   </c:ext>
@@ -27024,7 +27023,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-D7DE-4C3C-95A8-9ED046DAF8BE}"/>
                   </c:ext>
@@ -27136,7 +27135,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-D7DE-4C3C-95A8-9ED046DAF8BE}"/>
                   </c:ext>
@@ -27248,7 +27247,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-D7DE-4C3C-95A8-9ED046DAF8BE}"/>
                   </c:ext>
@@ -27360,7 +27359,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-D7DE-4C3C-95A8-9ED046DAF8BE}"/>
                   </c:ext>
@@ -39938,7 +39937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
@@ -39959,58 +39958,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13">
+      <c r="B2" s="12"/>
+      <c r="C2" s="11">
         <v>10000</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11">
         <v>30000</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>50000</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13">
+      <c r="H2" s="12"/>
+      <c r="I2" s="11">
         <v>100000</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="13">
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>300000</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13">
+      <c r="L2" s="12"/>
+      <c r="M2" s="11">
         <v>500000</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -40049,10 +40048,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>0</v>
       </c>
@@ -40092,10 +40091,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -40134,10 +40133,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>0</v>
       </c>
@@ -40176,10 +40175,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>0</v>
       </c>
@@ -40218,10 +40217,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -40260,10 +40259,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>0</v>
       </c>
@@ -40302,10 +40301,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -40344,10 +40343,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>0</v>
       </c>
@@ -40386,10 +40385,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>0</v>
       </c>
@@ -40428,10 +40427,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -40470,10 +40469,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -40513,14 +40512,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -40533,6 +40524,14 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -40544,7 +40543,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40562,7 +40561,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="15"/>
@@ -40577,43 +40576,43 @@
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="9"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="8">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13">
         <v>30000</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13">
         <v>50000</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8">
+      <c r="H2" s="14"/>
+      <c r="I2" s="13">
         <v>100000</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13">
         <v>300000</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13">
         <v>500000</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -40652,10 +40651,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>72</v>
       </c>
@@ -40694,10 +40693,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -40736,10 +40735,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>65</v>
       </c>
@@ -40778,10 +40777,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>0</v>
       </c>
@@ -40820,10 +40819,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -40862,10 +40861,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>0</v>
       </c>
@@ -40904,10 +40903,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -40946,10 +40945,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>0</v>
       </c>
@@ -40988,10 +40987,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>0</v>
       </c>
@@ -41030,10 +41029,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -41072,10 +41071,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -41115,7 +41114,7 @@
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="15"/>
@@ -41130,43 +41129,43 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="9"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13">
         <v>10000</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8">
+      <c r="D31" s="14"/>
+      <c r="E31" s="13">
         <v>30000</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13">
         <v>50000</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8">
+      <c r="H31" s="14"/>
+      <c r="I31" s="13">
         <v>100000</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="8">
+      <c r="J31" s="14"/>
+      <c r="K31" s="13">
         <v>300000</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8">
+      <c r="L31" s="14"/>
+      <c r="M31" s="13">
         <v>500000</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -41205,10 +41204,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3">
         <f>C4/1000</f>
         <v>7.1999999999999995E-2</v>
@@ -41217,7 +41216,7 @@
         <v>100010566</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" ref="D33:N33" si="0">E4/1000</f>
+        <f t="shared" ref="E33:M33" si="0">E4/1000</f>
         <v>0.626</v>
       </c>
       <c r="F33" s="3">
@@ -41253,12 +41252,12 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:N43" si="1">C5/1000</f>
+        <f t="shared" ref="C34:M43" si="1">C5/1000</f>
         <v>1E-3</v>
       </c>
       <c r="D34" s="3">
@@ -41301,10 +41300,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
@@ -41349,10 +41348,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -41397,10 +41396,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <f t="shared" si="1"/>
         <v>1E-3</v>
@@ -41445,10 +41444,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -41493,10 +41492,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <f t="shared" si="1"/>
         <v>4.0000000000000001E-3</v>
@@ -41541,10 +41540,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -41589,10 +41588,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -41637,10 +41636,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -41685,10 +41684,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -41734,34 +41733,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -41774,6 +41745,34 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41784,8 +41783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E94E9F-2C09-4E7F-B031-3858DEB5D295}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41799,7 +41798,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="15"/>
@@ -41814,43 +41813,43 @@
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="9"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="8">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13">
         <v>30000</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13">
         <v>50000</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8">
+      <c r="H2" s="14"/>
+      <c r="I2" s="13">
         <v>100000</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13">
         <v>300000</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13">
         <v>500000</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -41889,10 +41888,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>76</v>
       </c>
@@ -41931,10 +41930,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -41973,10 +41972,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>675</v>
       </c>
@@ -42015,10 +42014,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>80</v>
       </c>
@@ -42057,10 +42056,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -42099,10 +42098,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>637</v>
       </c>
@@ -42141,10 +42140,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -42183,10 +42182,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>0</v>
       </c>
@@ -42225,10 +42224,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>0</v>
       </c>
@@ -42267,10 +42266,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -42309,10 +42308,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -42352,7 +42351,7 @@
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="15"/>
@@ -42367,43 +42366,43 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="9"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13">
         <v>10000</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8">
+      <c r="D31" s="14"/>
+      <c r="E31" s="13">
         <v>30000</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13">
         <v>50000</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8">
+      <c r="H31" s="14"/>
+      <c r="I31" s="13">
         <v>100000</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="8">
+      <c r="J31" s="14"/>
+      <c r="K31" s="13">
         <v>300000</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8">
+      <c r="L31" s="14"/>
+      <c r="M31" s="13">
         <v>500000</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -42442,10 +42441,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3">
         <f>C4/1000</f>
         <v>7.5999999999999998E-2</v>
@@ -42455,7 +42454,7 @@
         <v>100010004</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" ref="D33:N33" si="0">E4/1000</f>
+        <f t="shared" ref="E33:M33" si="0">E4/1000</f>
         <v>0.64200000000000002</v>
       </c>
       <c r="F33" s="3">
@@ -42496,10 +42495,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
         <f t="shared" ref="C34:C43" si="1">C5/1000</f>
         <v>1E-3</v>
@@ -42544,10 +42543,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>0.67500000000000004</v>
@@ -42592,10 +42591,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>0.08</v>
@@ -42640,10 +42639,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <f t="shared" si="1"/>
         <v>1E-3</v>
@@ -42688,10 +42687,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>0.63700000000000001</v>
@@ -42736,10 +42735,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
@@ -42784,10 +42783,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -42832,10 +42831,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -42880,10 +42879,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -42928,10 +42927,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -42977,34 +42976,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -43017,6 +42988,34 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43027,8 +43026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768DDECA-3F3A-4120-824B-ACE9FBA41D86}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43061,31 +43060,31 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="8">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13">
         <v>30000</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13">
         <v>50000</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8">
+      <c r="H2" s="14"/>
+      <c r="I2" s="13">
         <v>100000</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13">
         <v>300000</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13">
         <v>500000</v>
       </c>
       <c r="N2" s="20"/>
@@ -43094,7 +43093,7 @@
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -43133,10 +43132,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>65</v>
       </c>
@@ -43175,10 +43174,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -43217,10 +43216,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>438</v>
       </c>
@@ -43259,10 +43258,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>39</v>
       </c>
@@ -43301,10 +43300,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -43343,10 +43342,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>378</v>
       </c>
@@ -43385,10 +43384,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -43427,10 +43426,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>0</v>
       </c>
@@ -43469,10 +43468,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>1</v>
       </c>
@@ -43511,10 +43510,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -43553,10 +43552,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -43614,31 +43613,31 @@
       <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13">
         <v>10000</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8">
+      <c r="D31" s="14"/>
+      <c r="E31" s="13">
         <v>30000</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13">
         <v>50000</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8">
+      <c r="H31" s="14"/>
+      <c r="I31" s="13">
         <v>100000</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="8">
+      <c r="J31" s="14"/>
+      <c r="K31" s="13">
         <v>300000</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8">
+      <c r="L31" s="14"/>
+      <c r="M31" s="13">
         <v>500000</v>
       </c>
       <c r="N31" s="20"/>
@@ -43647,7 +43646,7 @@
       <c r="A32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -43686,10 +43685,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3">
         <f>C4/1000</f>
         <v>6.5000000000000002E-2</v>
@@ -43699,7 +43698,7 @@
         <v>100010008</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" ref="D33:N33" si="0">E4/1000</f>
+        <f t="shared" ref="E33:M33" si="0">E4/1000</f>
         <v>0.57899999999999996</v>
       </c>
       <c r="F33" s="3">
@@ -43740,10 +43739,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
         <f t="shared" ref="C34:C43" si="1">C5/1000</f>
         <v>1E-3</v>
@@ -43752,41 +43751,46 @@
         <v>500576</v>
       </c>
       <c r="E34" s="3">
-        <v>4</v>
+        <f t="shared" ref="E34" si="2">E5/1000</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F34" s="3">
         <v>1691582</v>
       </c>
       <c r="G34" s="3">
-        <v>7</v>
+        <f t="shared" ref="G34" si="3">G5/1000</f>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H34" s="3">
         <v>2969568</v>
       </c>
       <c r="I34" s="3">
-        <v>16</v>
+        <f t="shared" ref="I34" si="4">I5/1000</f>
+        <v>1.6E-2</v>
       </c>
       <c r="J34" s="3">
         <v>6338938</v>
       </c>
       <c r="K34" s="3">
-        <v>56</v>
+        <f t="shared" ref="K34" si="5">K5/1000</f>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="L34" s="3">
         <v>20902195</v>
       </c>
       <c r="M34" s="3">
-        <v>98</v>
+        <f t="shared" ref="M34" si="6">M5/1000</f>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="N34" s="6">
         <v>36294768</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>0.438</v>
@@ -43795,41 +43799,46 @@
         <v>99986877</v>
       </c>
       <c r="E35" s="3">
-        <v>4123</v>
+        <f t="shared" ref="E35" si="7">E6/1000</f>
+        <v>4.1230000000000002</v>
       </c>
       <c r="F35" s="3">
         <v>900050200</v>
       </c>
       <c r="G35" s="3">
-        <v>11664</v>
+        <f t="shared" ref="G35" si="8">G6/1000</f>
+        <v>11.664</v>
       </c>
       <c r="H35" s="3">
         <v>2500037000</v>
       </c>
       <c r="I35" s="3">
-        <v>46937</v>
+        <f t="shared" ref="I35" si="9">I6/1000</f>
+        <v>46.936999999999998</v>
       </c>
       <c r="J35" s="3">
         <v>9999976272</v>
       </c>
       <c r="K35" s="3">
-        <v>424796</v>
+        <f t="shared" ref="K35" si="10">K6/1000</f>
+        <v>424.79599999999999</v>
       </c>
       <c r="L35" s="3">
         <v>89997807760</v>
       </c>
       <c r="M35" s="3">
-        <v>1178886</v>
+        <f t="shared" ref="M35" si="11">M6/1000</f>
+        <v>1178.886</v>
       </c>
       <c r="N35" s="6">
         <v>249997702145</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
@@ -43838,41 +43847,46 @@
         <v>49884355</v>
       </c>
       <c r="E36" s="3">
-        <v>345</v>
+        <f t="shared" ref="E36" si="12">E7/1000</f>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F36" s="3">
         <v>447590503</v>
       </c>
       <c r="G36" s="3">
-        <v>962</v>
+        <f t="shared" ref="G36" si="13">G7/1000</f>
+        <v>0.96199999999999997</v>
       </c>
       <c r="H36" s="3">
         <v>1250151399</v>
       </c>
       <c r="I36" s="3">
-        <v>3829</v>
+        <f t="shared" ref="I36" si="14">I7/1000</f>
+        <v>3.8290000000000002</v>
       </c>
       <c r="J36" s="3">
         <v>4985285805</v>
       </c>
       <c r="K36" s="3">
-        <v>36799</v>
+        <f t="shared" ref="K36" si="15">K7/1000</f>
+        <v>36.798999999999999</v>
       </c>
       <c r="L36" s="3">
         <v>45090251517</v>
       </c>
       <c r="M36" s="3">
-        <v>114450</v>
+        <f t="shared" ref="M36" si="16">M7/1000</f>
+        <v>114.45</v>
       </c>
       <c r="N36" s="6">
         <v>124937331385</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <f t="shared" si="1"/>
         <v>1E-3</v>
@@ -43881,41 +43895,46 @@
         <v>140058</v>
       </c>
       <c r="E37" s="3">
-        <v>6</v>
+        <f t="shared" ref="E37" si="17">E8/1000</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F37" s="3">
         <v>510072</v>
       </c>
       <c r="G37" s="3">
-        <v>8</v>
+        <f t="shared" ref="G37" si="18">G8/1000</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H37" s="3">
         <v>850072</v>
       </c>
       <c r="I37" s="3">
-        <v>18</v>
+        <f t="shared" ref="I37" si="19">I8/1000</f>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J37" s="3">
         <v>1700072</v>
       </c>
       <c r="K37" s="3">
-        <v>53</v>
+        <f t="shared" ref="K37" si="20">K8/1000</f>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L37" s="3">
         <v>5100072</v>
       </c>
       <c r="M37" s="3">
-        <v>89</v>
+        <f t="shared" ref="M37" si="21">M8/1000</f>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="N37" s="6">
         <v>8500072</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>0.378</v>
@@ -43924,41 +43943,46 @@
         <v>66694368</v>
       </c>
       <c r="E38" s="3">
-        <v>3384</v>
+        <f t="shared" ref="E38" si="22">E9/1000</f>
+        <v>3.3839999999999999</v>
       </c>
       <c r="F38" s="3">
         <v>596693847</v>
       </c>
       <c r="G38" s="3">
-        <v>9600</v>
+        <f t="shared" ref="G38" si="23">G9/1000</f>
+        <v>9.6</v>
       </c>
       <c r="H38" s="3">
         <v>1667941443</v>
       </c>
       <c r="I38" s="3">
-        <v>38122</v>
+        <f t="shared" ref="I38" si="24">I9/1000</f>
+        <v>38.122</v>
       </c>
       <c r="J38" s="3">
         <v>6652875310</v>
       </c>
       <c r="K38" s="3">
-        <v>343856</v>
+        <f t="shared" ref="K38" si="25">K9/1000</f>
+        <v>343.85599999999999</v>
       </c>
       <c r="L38" s="3">
         <v>60102091975</v>
       </c>
       <c r="M38" s="3">
-        <v>953798</v>
+        <f t="shared" ref="M38" si="26">M9/1000</f>
+        <v>953.798</v>
       </c>
       <c r="N38" s="6">
         <v>166650193522</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <f t="shared" si="1"/>
         <v>4.0000000000000001E-3</v>
@@ -43967,41 +43991,46 @@
         <v>457755</v>
       </c>
       <c r="E39" s="3">
-        <v>13</v>
+        <f t="shared" ref="E39" si="27">E10/1000</f>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F39" s="3">
         <v>1513120</v>
       </c>
       <c r="G39" s="3">
-        <v>22</v>
+        <f t="shared" ref="G39" si="28">G10/1000</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H39" s="3">
         <v>2637336</v>
       </c>
       <c r="I39" s="3">
-        <v>47</v>
+        <f t="shared" ref="I39" si="29">I10/1000</f>
+        <v>4.7E-2</v>
       </c>
       <c r="J39" s="3">
         <v>5574131</v>
       </c>
       <c r="K39" s="3">
-        <v>149</v>
+        <f t="shared" ref="K39" si="30">K10/1000</f>
+        <v>0.14899999999999999</v>
       </c>
       <c r="L39" s="3">
         <v>18136065</v>
       </c>
       <c r="M39" s="3">
-        <v>246</v>
+        <f t="shared" ref="M39" si="31">M10/1000</f>
+        <v>0.246</v>
       </c>
       <c r="N39" s="6">
         <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -44010,41 +44039,46 @@
         <v>291760</v>
       </c>
       <c r="E40" s="3">
-        <v>3</v>
+        <f t="shared" ref="E40" si="32">E11/1000</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F40" s="3">
         <v>948300</v>
       </c>
       <c r="G40" s="3">
-        <v>4</v>
+        <f t="shared" ref="G40" si="33">G11/1000</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H40" s="3">
         <v>1607794</v>
       </c>
       <c r="I40" s="3">
-        <v>9</v>
+        <f t="shared" ref="I40" si="34">I11/1000</f>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J40" s="3">
         <v>3562287</v>
       </c>
       <c r="K40" s="3">
-        <v>31</v>
+        <f t="shared" ref="K40" si="35">K11/1000</f>
+        <v>3.1E-2</v>
       </c>
       <c r="L40" s="3">
         <v>11287811</v>
       </c>
       <c r="M40" s="3">
-        <v>55</v>
+        <f t="shared" ref="M40" si="36">M11/1000</f>
+        <v>5.5E-2</v>
       </c>
       <c r="N40" s="6">
         <v>19444784</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>1E-3</v>
@@ -44053,41 +44087,46 @@
         <v>649858</v>
       </c>
       <c r="E41" s="3">
-        <v>4</v>
+        <f t="shared" ref="E41" si="37">E12/1000</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F41" s="3">
         <v>2260009</v>
       </c>
       <c r="G41" s="3">
-        <v>9</v>
+        <f t="shared" ref="G41" si="38">G12/1000</f>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H41" s="3">
         <v>4525939</v>
       </c>
       <c r="I41" s="3">
-        <v>17</v>
+        <f t="shared" ref="I41" si="39">I12/1000</f>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J41" s="3">
         <v>9920332</v>
       </c>
       <c r="K41" s="3">
-        <v>57</v>
+        <f t="shared" ref="K41" si="40">K12/1000</f>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="L41" s="3">
         <v>33074843</v>
       </c>
       <c r="M41" s="3">
-        <v>103</v>
+        <f t="shared" ref="M41" si="41">M12/1000</f>
+        <v>0.10299999999999999</v>
       </c>
       <c r="N41" s="6">
         <v>63519070</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -44096,41 +44135,46 @@
         <v>69990</v>
       </c>
       <c r="E42" s="3">
+        <f t="shared" ref="E42" si="42">E13/1000</f>
         <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>209990</v>
       </c>
       <c r="G42" s="3">
+        <f t="shared" ref="G42" si="43">G13/1000</f>
         <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>332760</v>
       </c>
       <c r="I42" s="3">
-        <v>1</v>
+        <f t="shared" ref="I42" si="44">I13/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="J42" s="3">
         <v>632761</v>
       </c>
       <c r="K42" s="3">
-        <v>3</v>
+        <f t="shared" ref="K42" si="45">K13/1000</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L42" s="3">
         <v>1832760</v>
       </c>
       <c r="M42" s="3">
-        <v>6</v>
+        <f t="shared" ref="M42" si="46">M13/1000</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N42" s="6">
         <v>3032756</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -44139,31 +44183,36 @@
         <v>59570</v>
       </c>
       <c r="E43" s="3">
+        <f t="shared" ref="E43" si="47">E14/1000</f>
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>187021</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <f t="shared" ref="G43" si="48">G14/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="H43" s="3">
         <v>299134</v>
       </c>
       <c r="I43" s="3">
-        <v>2</v>
+        <f t="shared" ref="I43" si="49">I14/1000</f>
+        <v>2E-3</v>
       </c>
       <c r="J43" s="3">
         <v>600953</v>
       </c>
       <c r="K43" s="3">
-        <v>10</v>
+        <f t="shared" ref="K43" si="50">K14/1000</f>
+        <v>0.01</v>
       </c>
       <c r="L43" s="3">
         <v>2013346</v>
       </c>
       <c r="M43" s="3">
-        <v>24</v>
+        <f t="shared" ref="M43" si="51">M14/1000</f>
+        <v>2.4E-2</v>
       </c>
       <c r="N43" s="6">
         <v>3160723</v>
@@ -44171,34 +44220,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -44211,6 +44232,34 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/All statistic.xlsx
+++ b/All statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05. Github\CTDLVAGT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF52D22-214B-4722-86BC-FB6E05BC3C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263F205-B5DD-4B17-B8CF-885752405447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorted Data" sheetId="1" r:id="rId1"/>
@@ -397,12 +397,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -416,6 +410,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4628,7 +4628,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Nearly Sorted Data'!$A$6</c15:sqref>
@@ -4728,7 +4728,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-CC2E-4D60-952C-BD775182D5A8}"/>
                   </c:ext>
@@ -9128,7 +9128,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$C$2:$J$2</c15:sqref>
@@ -9155,7 +9155,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$C$4:$J$4</c15:sqref>
@@ -9235,7 +9235,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$C$2:$J$2</c15:sqref>
@@ -9262,7 +9262,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$C$6:$J$6</c15:sqref>
@@ -9342,7 +9342,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$C$2:$J$2</c15:sqref>
@@ -9369,7 +9369,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$C$7:$J$7</c15:sqref>
@@ -9451,7 +9451,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$C$2:$J$2</c15:sqref>
@@ -9478,7 +9478,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$C$9:$J$9</c15:sqref>
@@ -15472,7 +15472,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$A$6</c15:sqref>
@@ -15572,7 +15572,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BA6E-4394-B441-4305043A6EE7}"/>
                   </c:ext>
@@ -15585,7 +15585,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$A$7</c15:sqref>
@@ -15685,7 +15685,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BA6E-4394-B441-4305043A6EE7}"/>
                   </c:ext>
@@ -15698,7 +15698,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Reserved Sorted Data'!$A$9</c15:sqref>
@@ -15798,7 +15798,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-BA6E-4394-B441-4305043A6EE7}"/>
                   </c:ext>
@@ -28272,7 +28272,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Randomized Data'!$A$6</c15:sqref>
@@ -28372,7 +28372,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-9565-488C-AA27-AB1FF6362686}"/>
                   </c:ext>
@@ -28385,7 +28385,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Randomized Data'!$A$7</c15:sqref>
@@ -28485,7 +28485,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-9565-488C-AA27-AB1FF6362686}"/>
                   </c:ext>
@@ -28498,7 +28498,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Randomized Data'!$A$9</c15:sqref>
@@ -28598,7 +28598,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-9565-488C-AA27-AB1FF6362686}"/>
                   </c:ext>
@@ -54916,7 +54916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -54937,58 +54937,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13">
+      <c r="B2" s="12"/>
+      <c r="C2" s="11">
         <v>10000</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11">
         <v>30000</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>50000</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13">
+      <c r="H2" s="12"/>
+      <c r="I2" s="11">
         <v>100000</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="13">
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>300000</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13">
+      <c r="L2" s="12"/>
+      <c r="M2" s="11">
         <v>500000</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -55027,10 +55027,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>0</v>
       </c>
@@ -55070,10 +55070,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -55112,10 +55112,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>0</v>
       </c>
@@ -55154,10 +55154,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>0</v>
       </c>
@@ -55196,10 +55196,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -55238,10 +55238,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>0</v>
       </c>
@@ -55280,10 +55280,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -55322,10 +55322,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>0</v>
       </c>
@@ -55364,10 +55364,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>0</v>
       </c>
@@ -55406,10 +55406,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -55448,10 +55448,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -55491,14 +55491,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -55511,6 +55503,14 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -55521,7 +55521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53407ED8-047A-4D5C-8566-5499EE020B81}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
@@ -55540,7 +55540,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="15"/>
@@ -55555,43 +55555,43 @@
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="9"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="8">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13">
         <v>30000</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13">
         <v>50000</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8">
+      <c r="H2" s="14"/>
+      <c r="I2" s="13">
         <v>100000</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13">
         <v>300000</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13">
         <v>500000</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -55630,10 +55630,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>72</v>
       </c>
@@ -55672,10 +55672,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -55714,10 +55714,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>65</v>
       </c>
@@ -55756,10 +55756,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>0</v>
       </c>
@@ -55798,10 +55798,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -55840,10 +55840,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>0</v>
       </c>
@@ -55882,10 +55882,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -55924,10 +55924,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>0</v>
       </c>
@@ -55966,10 +55966,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>0</v>
       </c>
@@ -56008,10 +56008,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -56050,10 +56050,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -56093,7 +56093,7 @@
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="15"/>
@@ -56108,43 +56108,43 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="9"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13">
         <v>10000</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8">
+      <c r="D31" s="14"/>
+      <c r="E31" s="13">
         <v>30000</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13">
         <v>50000</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8">
+      <c r="H31" s="14"/>
+      <c r="I31" s="13">
         <v>100000</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="8">
+      <c r="J31" s="14"/>
+      <c r="K31" s="13">
         <v>300000</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8">
+      <c r="L31" s="14"/>
+      <c r="M31" s="13">
         <v>500000</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -56183,10 +56183,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3">
         <f>C4/1000</f>
         <v>7.1999999999999995E-2</v>
@@ -56231,10 +56231,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
         <f t="shared" ref="C34:M43" si="1">C5/1000</f>
         <v>1E-3</v>
@@ -56279,10 +56279,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
@@ -56327,10 +56327,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -56375,10 +56375,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <f t="shared" si="1"/>
         <v>1E-3</v>
@@ -56423,10 +56423,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -56471,10 +56471,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <f t="shared" si="1"/>
         <v>4.0000000000000001E-3</v>
@@ -56519,10 +56519,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -56567,10 +56567,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -56615,10 +56615,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -56663,10 +56663,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -56712,34 +56712,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -56752,6 +56724,34 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -56777,7 +56777,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="15"/>
@@ -56792,43 +56792,43 @@
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="9"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="8">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13">
         <v>30000</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13">
         <v>50000</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8">
+      <c r="H2" s="14"/>
+      <c r="I2" s="13">
         <v>100000</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13">
         <v>300000</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13">
         <v>500000</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -56867,10 +56867,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>76</v>
       </c>
@@ -56909,10 +56909,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -56951,10 +56951,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>675</v>
       </c>
@@ -56993,10 +56993,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>80</v>
       </c>
@@ -57035,10 +57035,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -57077,10 +57077,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>637</v>
       </c>
@@ -57119,10 +57119,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -57161,10 +57161,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>0</v>
       </c>
@@ -57203,10 +57203,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>0</v>
       </c>
@@ -57245,10 +57245,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -57287,10 +57287,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -57330,7 +57330,7 @@
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="15"/>
@@ -57345,43 +57345,43 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="9"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13">
         <v>10000</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8">
+      <c r="D31" s="14"/>
+      <c r="E31" s="13">
         <v>30000</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13">
         <v>50000</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8">
+      <c r="H31" s="14"/>
+      <c r="I31" s="13">
         <v>100000</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="8">
+      <c r="J31" s="14"/>
+      <c r="K31" s="13">
         <v>300000</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8">
+      <c r="L31" s="14"/>
+      <c r="M31" s="13">
         <v>500000</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -57420,10 +57420,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3">
         <f>C4/1000</f>
         <v>7.5999999999999998E-2</v>
@@ -57474,10 +57474,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
         <f t="shared" ref="C34:C43" si="1">C5/1000</f>
         <v>1E-3</v>
@@ -57522,10 +57522,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>0.67500000000000004</v>
@@ -57570,10 +57570,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>0.08</v>
@@ -57618,10 +57618,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <f t="shared" si="1"/>
         <v>1E-3</v>
@@ -57666,10 +57666,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>0.63700000000000001</v>
@@ -57714,10 +57714,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
@@ -57762,10 +57762,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -57810,10 +57810,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -57858,10 +57858,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -57906,10 +57906,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -57955,34 +57955,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -57995,6 +57967,34 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -58005,8 +58005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768DDECA-3F3A-4120-824B-ACE9FBA41D86}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58039,31 +58039,31 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="8">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13">
         <v>30000</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13">
         <v>50000</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8">
+      <c r="H2" s="14"/>
+      <c r="I2" s="13">
         <v>100000</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13">
         <v>300000</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13">
         <v>500000</v>
       </c>
       <c r="N2" s="20"/>
@@ -58072,7 +58072,7 @@
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -58111,10 +58111,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3">
         <v>65</v>
       </c>
@@ -58153,10 +58153,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -58195,10 +58195,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3">
         <v>438</v>
       </c>
@@ -58237,10 +58237,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>39</v>
       </c>
@@ -58279,10 +58279,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -58321,10 +58321,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>378</v>
       </c>
@@ -58363,10 +58363,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -58401,14 +58401,14 @@
         <v>246</v>
       </c>
       <c r="N10" s="6">
-        <v>246</v>
+        <v>31288843</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>0</v>
       </c>
@@ -58447,10 +58447,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>1</v>
       </c>
@@ -58489,10 +58489,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>0</v>
       </c>
@@ -58531,10 +58531,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>0</v>
       </c>
@@ -58592,31 +58592,31 @@
       <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13">
         <v>10000</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8">
+      <c r="D31" s="14"/>
+      <c r="E31" s="13">
         <v>30000</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13">
         <v>50000</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8">
+      <c r="H31" s="14"/>
+      <c r="I31" s="13">
         <v>100000</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="8">
+      <c r="J31" s="14"/>
+      <c r="K31" s="13">
         <v>300000</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8">
+      <c r="L31" s="14"/>
+      <c r="M31" s="13">
         <v>500000</v>
       </c>
       <c r="N31" s="20"/>
@@ -58625,7 +58625,7 @@
       <c r="A32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -58664,10 +58664,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3">
         <f>C4/1000</f>
         <v>6.5000000000000002E-2</v>
@@ -58718,10 +58718,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
         <f t="shared" ref="C34:C43" si="1">C5/1000</f>
         <v>1E-3</v>
@@ -58766,10 +58766,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>0.438</v>
@@ -58814,10 +58814,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
@@ -58862,10 +58862,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <f t="shared" si="1"/>
         <v>1E-3</v>
@@ -58910,10 +58910,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>0.378</v>
@@ -58958,10 +58958,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <f t="shared" si="1"/>
         <v>4.0000000000000001E-3</v>
@@ -59006,10 +59006,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -59054,10 +59054,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>1E-3</v>
@@ -59102,10 +59102,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -59150,10 +59150,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -59199,34 +59199,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -59239,6 +59211,34 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
